--- a/hebrewOutputs/hebrew82Comperation_6_Common_alpha=0.1.xlsx
+++ b/hebrewOutputs/hebrew82Comperation_6_Common_alpha=0.1.xlsx
@@ -46,27 +46,27 @@
     <t>personal</t>
   </si>
   <si>
+    <t>רופא:</t>
+  </si>
+  <si>
+    <t>מה קורה?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> אפשר לקחת אותו הביתה?</t>
+  </si>
+  <si>
+    <t>[?]med</t>
+  </si>
+  <si>
+    <t>שלום. אני ד"ר סוס.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שלום. מכיר. </t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
-    <t>רופא:</t>
-  </si>
-  <si>
-    <t>מה קורה?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> אפשר לקחת אותו הביתה?</t>
-  </si>
-  <si>
-    <t>[?]med</t>
-  </si>
-  <si>
-    <t>שלום. אני ד"ר סוס.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">שלום. מכיר. </t>
-  </si>
-  <si>
     <t>יאללה. אפשר לקחת אותו הביתה?</t>
   </si>
   <si>
@@ -97,6 +97,9 @@
     <t>כן.</t>
   </si>
   <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>נו אז יאללה נו אז יאללה,</t>
   </si>
   <si>
@@ -316,6 +319,9 @@
     <t>מה אתה אומר...</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
     <t xml:space="preserve">אני מבין שזה קשה אבל אא ... </t>
   </si>
   <si>
@@ -328,9 +334,6 @@
     <t xml:space="preserve">כן, הוא גם יכול למות בגיל חמישים מלחץ ב... לא יודע. </t>
   </si>
   <si>
-    <t>concern</t>
-  </si>
-  <si>
     <t>אא זה לא מדויק. זה לא מדויק. זה לא ש... ילדים חולי סכרת הם אא לא מחזיקים מעמד. להיפך, הם יכולים לנהל חיים נורמאליים לגמרי ולחיות חיים שלמים.</t>
   </si>
   <si>
@@ -398,9 +401,6 @@
   </si>
   <si>
     <t>אני מבין</t>
-  </si>
-  <si>
-    <t>agree</t>
   </si>
   <si>
     <t>ואנחנו נתמודד איתו.</t>
@@ -864,15 +864,15 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -886,13 +886,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -900,27 +900,27 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -931,10 +931,10 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -951,7 +951,7 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -962,10 +962,10 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -973,10 +973,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -990,10 +990,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1001,10 +1001,10 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -1018,15 +1018,15 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>5</v>
@@ -1040,27 +1040,27 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -1068,35 +1068,35 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>5</v>
@@ -1105,12 +1105,12 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1133,71 +1133,71 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
         <v>6</v>
@@ -1208,27 +1208,27 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D29" t="s">
         <v>7</v>
@@ -1236,13 +1236,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
         <v>7</v>
@@ -1250,16 +1250,16 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1267,7 +1267,7 @@
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
         <v>6</v>
@@ -1278,24 +1278,24 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
         <v>19</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -1306,16 +1306,16 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
         <v>19</v>
       </c>
       <c r="C35" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1323,7 +1323,7 @@
         <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
         <v>6</v>
@@ -1334,7 +1334,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
         <v>19</v>
@@ -1343,7 +1343,7 @@
         <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1351,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
         <v>6</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
         <v>19</v>
@@ -1371,26 +1371,26 @@
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>19</v>
@@ -1399,60 +1399,60 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
         <v>19</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
         <v>19</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D45" t="s">
         <v>7</v>
@@ -1460,27 +1460,27 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
         <v>7</v>
@@ -1488,27 +1488,27 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D49" t="s">
         <v>7</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
         <v>19</v>
@@ -1530,13 +1530,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D51" t="s">
         <v>7</v>
@@ -1544,7 +1544,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
         <v>19</v>
@@ -1553,18 +1553,18 @@
         <v>19</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
         <v>7</v>
@@ -1572,13 +1572,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
         <v>19</v>
       </c>
       <c r="C54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D54" t="s">
         <v>7</v>
@@ -1586,21 +1586,21 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B55" t="s">
         <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
         <v>19</v>
@@ -1609,46 +1609,46 @@
         <v>19</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B57" t="s">
         <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B58" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C58" t="s">
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
@@ -1656,13 +1656,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60" t="s">
         <v>7</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
@@ -1679,18 +1679,18 @@
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62" t="s">
         <v>7</v>
@@ -1698,41 +1698,41 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
         <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B64" t="s">
         <v>22</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
         <v>7</v>
@@ -1740,13 +1740,13 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D66" t="s">
         <v>7</v>
@@ -1754,27 +1754,27 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -1782,27 +1782,27 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B69" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
         <v>7</v>
@@ -1810,63 +1810,63 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" t="s">
         <v>92</v>
       </c>
-      <c r="B73" t="s">
-        <v>91</v>
-      </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -1875,18 +1875,18 @@
         <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D76" t="s">
         <v>7</v>
@@ -1894,27 +1894,27 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C78" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D78" t="s">
         <v>7</v>
@@ -1922,55 +1922,55 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C79" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B80" t="s">
         <v>20</v>
       </c>
       <c r="C80" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C81" t="s">
         <v>19</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D82" t="s">
         <v>7</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B83" t="s">
         <v>19</v>
@@ -1987,18 +1987,18 @@
         <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D84" t="s">
         <v>7</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B85" t="s">
         <v>5</v>
@@ -2015,18 +2015,18 @@
         <v>20</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B86" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -2034,35 +2034,35 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89" t="s">
         <v>5</v>
@@ -2071,12 +2071,12 @@
         <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90" t="s">
         <v>5</v>
@@ -2085,32 +2085,32 @@
         <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91" t="s">
         <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
@@ -2118,21 +2118,21 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93" t="s">
         <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94" t="s">
         <v>19</v>
@@ -2141,18 +2141,18 @@
         <v>19</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D95" t="s">
         <v>7</v>
@@ -2160,13 +2160,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B96" t="s">
         <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D96" t="s">
         <v>7</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B97" t="s">
         <v>19</v>
@@ -2183,18 +2183,18 @@
         <v>19</v>
       </c>
       <c r="D97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B98" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B99" t="s">
         <v>20</v>
@@ -2211,32 +2211,32 @@
         <v>20</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B100" t="s">
         <v>20</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B101" t="s">
         <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D101" t="s">
         <v>7</v>
@@ -2244,41 +2244,41 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B103" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C103" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B104" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D104" t="s">
         <v>7</v>
@@ -2289,13 +2289,13 @@
         <v>129</v>
       </c>
       <c r="B105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2303,10 +2303,10 @@
         <v>130</v>
       </c>
       <c r="B106" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D106" t="s">
         <v>7</v>
@@ -2317,13 +2317,13 @@
         <v>131</v>
       </c>
       <c r="B107" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C107" t="s">
         <v>20</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2331,13 +2331,13 @@
         <v>132</v>
       </c>
       <c r="B108" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C108" t="s">
         <v>19</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2351,7 +2351,7 @@
         <v>20</v>
       </c>
       <c r="D109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2359,13 +2359,13 @@
         <v>134</v>
       </c>
       <c r="B110" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C110" t="s">
         <v>19</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2379,7 +2379,7 @@
         <v>20</v>
       </c>
       <c r="D111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2387,10 +2387,10 @@
         <v>136</v>
       </c>
       <c r="B112" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C112" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D112" t="s">
         <v>7</v>
@@ -2401,13 +2401,13 @@
         <v>137</v>
       </c>
       <c r="B113" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2415,10 +2415,10 @@
         <v>138</v>
       </c>
       <c r="B114" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -2432,10 +2432,10 @@
         <v>139</v>
       </c>
       <c r="C115" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2446,7 +2446,7 @@
         <v>141</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D116" t="s">
         <v>7</v>
@@ -2463,7 +2463,7 @@
         <v>19</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2474,7 +2474,7 @@
         <v>145</v>
       </c>
       <c r="C118" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D118" t="s">
         <v>7</v>
@@ -2488,10 +2488,10 @@
         <v>143</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2502,10 +2502,10 @@
         <v>20</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2513,13 +2513,13 @@
         <v>148</v>
       </c>
       <c r="B121" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2527,7 +2527,7 @@
         <v>149</v>
       </c>
       <c r="B122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C122" t="s">
         <v>6</v>
@@ -2541,13 +2541,13 @@
         <v>150</v>
       </c>
       <c r="B123" t="s">
-        <v>128</v>
+        <v>27</v>
       </c>
       <c r="C123" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2569,13 +2569,13 @@
         <v>152</v>
       </c>
       <c r="B125" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C125" t="s">
         <v>20</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2586,10 +2586,10 @@
         <v>19</v>
       </c>
       <c r="C126" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2597,10 +2597,10 @@
         <v>154</v>
       </c>
       <c r="B127" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C127" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D127" t="s">
         <v>7</v>
@@ -2617,7 +2617,7 @@
         <v>20</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2628,7 +2628,7 @@
         <v>145</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="D129" t="s">
         <v>7</v>
@@ -2639,10 +2639,10 @@
         <v>157</v>
       </c>
       <c r="B130" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C130" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D130" t="s">
         <v>7</v>
@@ -2659,7 +2659,7 @@
         <v>19</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
